--- a/20200305 WO3196dev1/20200316 WO3196dev1 R_T/0316_1457_WO3196dev1_Tsteps5C_fit.xlsx
+++ b/20200305 WO3196dev1/20200316 WO3196dev1 R_T/0316_1457_WO3196dev1_Tsteps5C_fit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rijk\Documents\MEP\MEP_control_software\20200305 WO3196dev1\20200316 WO3196dev1 R_T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB760F5E-3B0D-4334-A76D-86ECFFBFD85F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B69F89-9695-4328-8C33-AE88EA8CC104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="19416" windowHeight="14856" xr2:uid="{AAB26118-4A42-404F-BBC3-5088C1397B7A}"/>
+    <workbookView xWindow="30396" yWindow="4884" windowWidth="17280" windowHeight="8988" xr2:uid="{AAB26118-4A42-404F-BBC3-5088C1397B7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,10 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +446,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,6 +691,10 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <f>A8*1000</f>
+        <v>405.48499999999996</v>
+      </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
